--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_149.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_149.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,117 +488,132 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_79</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_58</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2263824884792627</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['Bb', 'Bb:7', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_193</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_238</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.05833333333333333</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['C', 'C:7', 'F']]</t>
+          <t>[['G', 'C:min', 'C:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(14.13, 15.8)]</t>
+          <t>[['C', 'F:min', 'F:min/5']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(31.527551, 47.02687)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:14.820000', '0:00:20.760000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:41.384331', '0:00:46.388231')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:5By7Pzgl6TMuVJG168VWzS</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_96</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_213</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1964285714285714</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'F:7', 'A#:maj'], ['F:7/D#', 'A#:maj/D', 'F:maj/C']]</t>
-        </is>
+          <t>isophonics_170</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_116</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1019585253456221</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['E', 'E:7', 'A'], ['E:7', 'A', 'E']]</t>
+          <t>[['D', 'F#/5', 'B:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(17.84, 26.98), (66.04, 68.54)]</t>
+          <t>[['G', 'B', 'E:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(16.192174, 27.488682), (0.442301, 13.370949)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:51.613644', '0:00:54.494587')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:57.789229', '0:01:03.373628')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A:min', 'A:7', 'D:maj/A', 'D:min/A', 'A:maj', 'A:min', 'E:maj', 'A:min', 'A:7', 'D:min/A', 'E:7/A', 'A:min', 'D:min/A', 'A:min', 'C:maj/G', 'D:min/F', 'C:maj/E', 'G:7', 'C:maj', 'A:min', 'A:7/G', 'D:maj/F#', 'G:(3,5,b7,b9)/F', 'C:maj/E', 'E:(3,5,b7,b9)/D', 'F:(3,5)', 'A:min/E', 'E:7', 'F:(3,5)', 'A:min/E', 'E:7', 'A:min', 'A:7', 'D:maj', 'D:min', 'A:maj', 'A:min/A', 'E:maj', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_66</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_94</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.06346153846153846</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A#:min', 'A#:7', 'D#:maj/A#', 'D#:min/A#', 'A#:maj', 'A#:min', 'F:maj', 'A#:min', 'A#:7', 'D#:min/A#', 'F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min', 'C#:maj/G#', 'D#:min/F#', 'C#:maj/F', 'G#:7', 'C#:maj', 'A#:min', 'A#:7/G#', 'D#:maj/G', 'G#:(3,5,b7,b9)/F#', 'C#:maj/F', 'F:(3,5,b7,b9)/D#', 'F#:(3,5)', 'A#:min/F', 'F:7', 'F#:(3,5)', 'A#:min/F', 'F:7', 'A#:min', 'A#:7', 'D#:maj', 'D#:min', 'A#:maj', 'A#:min/A#', 'F:maj', 'A#:min']]</t>
+          <t>[['A#:7', 'D#', 'C:min'], ['C:min/G', 'G', 'C:min'], ['C:min/G', 'G:7', 'C:min'], ['D#/G', 'A#:7/F', 'D#/G'], ['C:min', 'F:min', 'C:min/G']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(0.62, 107.38)]</t>
+          <t>[['G#:7', 'C#:maj', 'A#:min'], ['A#:min', 'F:maj', 'A#:min'], ['A#:min/F', 'F:7', 'A#:min'], ['C#:maj/F', 'G#:7', 'C#:maj'], ['A#:min', 'D#:min/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(0.78, 98.82)]</t>
+          <t>[('0:00:36.300000', '0:00:38.620000'), ('0:00:12.280000', '0:00:17.300000'), ('0:00:23.300000', '0:00:26.860000'), ('0:00:41.080000', '0:00:42.940000'), ('0:00:07.620000', '0:00:11.120000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
+          <t>[('0:00:43.040000', '0:00:49.380000'), ('0:00:15.600000', '0:00:24.080000'), ('0:01:24.620000', '0:01:31.740000'), ('0:00:41.320000', '0:00:46.640000'), ('0:00:30.240000', '0:00:38.500000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
         <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
@@ -602,501 +622,536 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_86</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2635135135135135</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['E:maj', 'B:7/A', 'E:maj/G#', 'E:maj/B'], ['E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
-        </is>
+          <t>isophonics_236</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1535714285714286</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb', 'Bb'], ['Bb', 'Bb', 'F:7', 'Bb']]</t>
+          <t>[['G:maj', 'D:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(212.26, 222.96), (232.44, 245.22)]</t>
+          <t>[['A#:maj', 'F:maj', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(14.82, 17.23), (14.59, 16.26)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:11.820000', '0:00:17.361000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:02:06.040000', '0:02:07.180000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_18</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_13</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.09973045822102425</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'F:maj'], ['F:maj', 'F:maj', 'F:7']]</t>
-        </is>
+          <t>isophonics_248</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_275</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1863636363636363</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Eb'], ['Eb', 'Eb', 'Eb:7']]</t>
+          <t>[['F#/4', 'B', 'E/5']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(75.58, 86.06), (76.84, 90.32)]</t>
+          <t>[['D', 'G', 'C']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(7.87, 14.66), (17.45, 22.86)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:02:07.431000', '0:02:12.656000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:28.800769', '0:00:40.713165')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_187</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_77</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.09642857142857142</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C:min/G', 'G', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_261</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.39375</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(14.08, 18.4)]</t>
+          <t>[['G/3', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(47.02, 51.38)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:02:34.020000', '0:02:39.240000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:13.079206', '0:00:17.500916')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_168</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_233</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.0857843137254902</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['F', 'G', 'A:min7']]</t>
-        </is>
+          <t>isophonics_114</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3506493506493507</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['Eb', 'F', 'G:min7']]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(29.993606, 33.940998)]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(67.928, 72.481)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:00:06.726778', '0:00:13.147096')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:01:01.600000', '0:01:03.840000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jaah_74</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_21</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.08188405797101449</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['Bb:7', 'Eb', 'Eb'], ['Eb', 'Eb', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_192</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_178</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3736263736263736</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'C/b7'], ['C', 'C/7', 'C/b7']]</t>
+          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(18.07, 19.25), (18.47, 20.04)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(34.041, 38.588), (52.386, 56.294)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:00:49.140000', '0:01:02.460000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:01.140000', '0:00:09.880000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_192</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_60</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.07138857782754759</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['F', 'G', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C', 'D', 'G']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(75.355124, 80.742154)]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(0.98079, 5.421882)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:02:18.020000', '0:02:23.320000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:01:58.440000', '0:02:02')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_25</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_266</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.08866995073891626</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['Bb', 'Bb', 'Bb']]</t>
-        </is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4666666666666667</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A', 'A', 'A/b7']]</t>
+          <t>[['C#', 'F#/5', 'C#', 'F#/5']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(31.37, 36.95)]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(36.173061, 41.86195)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:6Pq9MmkDQYZiiCDpxnvrf6</t>
+          <t>[('0:00:31.469410', '0:02:07.006105')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:02:03.220000', '0:02:07.180000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_10</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_167</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
+          <t>schubert-winterreise_66</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_51</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
         <v>1</v>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
-        </is>
-      </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(0.8, 41.86)]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(0.58, 38.34)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:14.760000', '0:01:42.460000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:14.880000', '0:01:39.500000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_218</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1168269230769231</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'C:maj/G']]</t>
-        </is>
+          <t>schubert-winterreise_124</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_192</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'F']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(16.92, 22.62)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(35.997, 42.131)]</t>
+          <t>[('0:00:18.380000', '0:01:02.360000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:17.320000', '0:01:02.460000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_147</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1113122171945701</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'E:7'], ['E', 'A', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_70</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_29</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C:maj/E', 'G:maj/D', 'G:7/F'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(92.241, 98.929), (19.435, 32.669)]</t>
+          <t>[['A#:min', 'F:7/C', 'A#:min/C#', 'A#:maj/D', 'D#:min', 'C:hdim7', 'A#:min', 'B:maj', 'F#:maj/A#', 'F:7', 'F#:maj'], ['A#:7/G#', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min', 'A#:min/F']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(61.8, 67.0), (16.02, 22.5)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:01.540000', '0:00:10.140000'), ('0:01:11.500000', '0:01:18.960000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:00.800000', '0:00:09.520000'), ('0:01:10.800000', '0:01:18.300000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_81</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_298</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['B', 'E/5', 'B']]</t>
-        </is>
+          <t>schubert-winterreise_109</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_47</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(58.625147, 64.604285)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(0.344657, 11.337709)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+          <t>[('0:00:01.540000', '0:02:18.860000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:00.360000', '0:02:02.640000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jaah_83</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.04450549450549451</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj'], ['A:min7/C', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_7</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_184</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D:7', 'G', 'G'], ['A:min7', 'D:7', 'G']]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(6.12, 11.62), (68.8, 76.2)]</t>
+          <t>[['G:min', 'A:hdim7/C', 'D:7', 'G:min', 'G:min', 'A:hdim7/C', 'D:7', 'G:min', 'F#:dim7', 'G:min', 'F#:dim7', 'D:maj/A', 'G:min/A#', 'F:maj/A', 'D#:maj/G', 'A#:maj/F', 'D#:maj', 'A#:maj/F', 'F:7', 'A#:maj', 'D#:maj/G', 'D:min/A', 'A:7', 'D:min', 'C#:dim7/E', 'D:min/F', 'D:(3,5,b7,b9)/F#', 'G:min', 'G:(3,5,b7,b9)', 'C:min', 'G:min/D', 'D:(3,5,b7,b9)', 'F#:dim7', 'A:hdim7/C', 'F#:dim7', 'A:hdim7/C', 'D:(3,5,b7,b9)', 'G:min', 'G:(3,5,b7,b9)/B', 'C:min', 'G:min/D', 'D:(3,5,b7,b9)', 'G:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(6.38, 9.89), (14.53, 17.43)]</t>
+          <t>[('0:00:11.940000', '0:01:07.800000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_182</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_129</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(154.02, 160.38)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(105.0, 108.54)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:09.180000', '0:01:01')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
